--- a/data/metadata/mapping-tipo-licencias-descripcion.xlsx
+++ b/data/metadata/mapping-tipo-licencias-descripcion.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Transporte privado mercancías nacional empresa</t>
   </si>
@@ -119,78 +119,6 @@
   </si>
   <si>
     <t>http://opendata.aragon.es/kos/iaest/tipo-licencias-descripcion/transporte-publico-ambulancias-nacional-empresa</t>
-  </si>
-  <si>
-    <t>Licencias taxi</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/tipo-licencias-descripcion/licencias-taxi</t>
-  </si>
-  <si>
-    <t>Transporte mercancías pesadas nacionales servicio público</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/tipo-licencias-descripcion/transporte-mercancias-pesadas-nacionales-servicio-publico</t>
-  </si>
-  <si>
-    <t>Transporte mercancías pesadas nacinal servicio público autorizado por empresa</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/tipo-licencias-descripcion/transporte-mercancias-pesadas-nacinal-servicio-publico-autorizado-por-empresa</t>
-  </si>
-  <si>
-    <t>Transporte mercancías ligeras nacional servicio público autorizado por empresa</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/tipo-licencias-descripcion/transporte-mercancias-ligeras-nacional-servicio-publico-autorizado-por-empresa</t>
-  </si>
-  <si>
-    <t>Ambulancias nacionales servicio público</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/tipo-licencias-descripcion/ambulancias-nacionales-servicio-publico</t>
-  </si>
-  <si>
-    <t>transporte mercancías propias nacional autorizado por empresa</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/tipo-licencias-descripcion/transporte-mercancias-propias-nacional-autorizado-por-empresa</t>
-  </si>
-  <si>
-    <t>Transporte de viajeros nacionales servicio público</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/tipo-licencias-descripcion/transporte-de-viajeros-nacionales-servicio-publico</t>
-  </si>
-  <si>
-    <t>Operaciones de transporte</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/tipo-licencias-descripcion/operaciones-de-transporte</t>
-  </si>
-  <si>
-    <t>Transporte de alquiler con conductor nacional</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/tipo-licencias-descripcion/transporte-de-alquiler-con-conductor-nacional</t>
-  </si>
-  <si>
-    <t>Transporte mercancías propias nacional</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/tipo-licencias-descripcion/transporte-mercancias-propias-nacional</t>
-  </si>
-  <si>
-    <t>Servicio público nacional mixto-Mercancías y viajeros</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/tipo-licencias-descripcion/servicio-publico-nacional-mixto-mercancias-y-viajeros</t>
-  </si>
-  <si>
-    <t>Transporte mercancías ligeras nacionales servicio público</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/tipo-licencias-descripcion/transporte-mercancias-ligeras-nacionales-servicio-publico</t>
   </si>
 </sst>
 </file>
@@ -218,20 +146,25 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -241,22 +174,16 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="35.57"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -400,102 +327,6 @@
       </c>
       <c r="B18" s="2" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -518,19 +349,7 @@
     <hyperlink r:id="rId16" ref="B16"/>
     <hyperlink r:id="rId17" ref="B17"/>
     <hyperlink r:id="rId18" ref="B18"/>
-    <hyperlink r:id="rId19" ref="B19"/>
-    <hyperlink r:id="rId20" ref="B20"/>
-    <hyperlink r:id="rId21" ref="B21"/>
-    <hyperlink r:id="rId22" ref="B22"/>
-    <hyperlink r:id="rId23" ref="B23"/>
-    <hyperlink r:id="rId24" ref="B24"/>
-    <hyperlink r:id="rId25" ref="B25"/>
-    <hyperlink r:id="rId26" ref="B26"/>
-    <hyperlink r:id="rId27" ref="B27"/>
-    <hyperlink r:id="rId28" ref="B28"/>
-    <hyperlink r:id="rId29" ref="B29"/>
-    <hyperlink r:id="rId30" ref="B30"/>
   </hyperlinks>
-  <drawing r:id="rId31"/>
+  <drawing r:id="rId19"/>
 </worksheet>
 </file>